--- a/projects/Kofskey1972_two_stage/experimental_data_kofskey1972_2stage_raw.xlsx
+++ b/projects/Kofskey1972_two_stage/experimental_data_kofskey1972_2stage_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasseba\Python Scripts\Mean line model\meanline-axial\projects\Kofskey1972_two_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E85D85-3056-4BA9-979B-F2167006818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7935E8-18D2-4793-8729-65F95DA4C613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7BFAA4A5-9F92-448B-9D0F-E5198FF06363}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7BFAA4A5-9F92-448B-9D0F-E5198FF06363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>torque</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>mass_flow</t>
+  </si>
+  <si>
+    <t>cos_angle</t>
   </si>
 </sst>
 </file>
@@ -405,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF07E53-E553-4717-8B71-61ECB9CECE06}">
   <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2591,15 +2594,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0F3098-AEBB-43E2-A19E-155F86EB2540}">
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126:F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2615,8 +2618,11 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.4037326564167598</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>2.3591397553418689</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.6909452793723099</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>2.3757892349601111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.9728675685810702</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>2.393389340788445</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.2974240632301601</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>2.3976664158249599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.6456572532956399</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>2.4000481817123771</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.0253555254276403</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>2.4018088757713811</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.6120748838953398</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>2.4017574664764978</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.00483456889837</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>2.4041594394856052</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.3901520177690498</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>2.3680285115769788</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.6691954885049101</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>2.3903924463437032</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.2654397553869599</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>2.4078175228385881</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.0091383736694803</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>2.4110141111917871</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.6140537110219997</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>2.413512365192477</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.0281391525081398</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>2.4090939888859242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.36612917183488</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3.8275208779309202</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3.8478166609414899</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4.3032961083218204</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4.8425830169321102</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5.0659421855912097</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5.07051383255342</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2.4984892362919902</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2.4984528378289199</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2.8683049008255601</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3.2471328248164699</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3.6438906317180701</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>4.6006642719511097</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4.6232276792112401</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2.3821324789359899</v>
       </c>
@@ -3861,8 +3867,12 @@
       <c r="E126">
         <v>36.351432592671102</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <f>COS(E126*PI()/180)</f>
+        <v>0.8053965262717081</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2.68491243794332</v>
       </c>
@@ -3872,8 +3882,12 @@
       <c r="E127">
         <v>34.728291041931897</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <f t="shared" ref="F127:F177" si="0">COS(E127*PI()/180)</f>
+        <v>0.8218628466260689</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2.96230375185932</v>
       </c>
@@ -3883,8 +3897,12 @@
       <c r="E128">
         <v>27.076086510731798</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <f t="shared" si="0"/>
+        <v>0.89040285744800218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3.2887614272810199</v>
       </c>
@@ -3894,8 +3912,12 @@
       <c r="E129">
         <v>22.411525161274799</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <f t="shared" si="0"/>
+        <v>0.92446936183571704</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3.6207152009971</v>
       </c>
@@ -3905,8 +3927,12 @@
       <c r="E130">
         <v>14.7049038152789</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <f t="shared" si="0"/>
+        <v>0.96724603066861026</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3.6205743574764599</v>
       </c>
@@ -3916,8 +3942,12 @@
       <c r="E131">
         <v>15.155603081352099</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <f t="shared" si="0"/>
+        <v>0.96521936790113894</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>4.0188062111192302</v>
       </c>
@@ -3927,8 +3957,12 @@
       <c r="E132">
         <v>6.2682168790156103</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <f t="shared" si="0"/>
+        <v>0.99402167435288413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4.0209204644234999</v>
       </c>
@@ -3938,8 +3972,12 @@
       <c r="E133">
         <v>6.7753335780756299</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <f t="shared" si="0"/>
+        <v>0.99301639021252264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4.4096389784443302</v>
       </c>
@@ -3949,8 +3987,12 @@
       <c r="E134">
         <v>-0.76027492495180105</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <f t="shared" si="0"/>
+        <v>0.99991196412173677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>4.4094629240435301</v>
       </c>
@@ -3960,8 +4002,12 @@
       <c r="E135">
         <v>-0.19690084236026401</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <f t="shared" si="0"/>
+        <v>0.99999409500600511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>4.6079274495819202</v>
       </c>
@@ -3971,8 +4017,12 @@
       <c r="E136">
         <v>-2.5561098379399199</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <f t="shared" si="0"/>
+        <v>0.9990050260017258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4.6168774151212704</v>
       </c>
@@ -3982,8 +4032,12 @@
       <c r="E137">
         <v>-2.1050904729561202</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <f t="shared" si="0"/>
+        <v>0.99932513420542946</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4.7810401414036896</v>
       </c>
@@ -3993,8 +4047,12 @@
       <c r="E138">
         <v>-3.7894509403405499</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <f t="shared" si="0"/>
+        <v>0.99781365345371131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5.0019676079908599</v>
       </c>
@@ -4004,8 +4062,12 @@
       <c r="E139">
         <v>-5.3027985647565004</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <f t="shared" si="0"/>
+        <v>0.99572018523219286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5.2064756009606903</v>
       </c>
@@ -4015,8 +4077,12 @@
       <c r="E140">
         <v>-5.1829215227505099</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <f t="shared" si="0"/>
+        <v>0.99591136973994532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2.37691646718836</v>
       </c>
@@ -4026,8 +4092,12 @@
       <c r="E141">
         <v>31.224488366905302</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <f t="shared" si="0"/>
+        <v>0.85514277593456622</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2.6558762657661199</v>
       </c>
@@ -4037,8 +4107,12 @@
       <c r="E142">
         <v>25.825860190798899</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <f t="shared" si="0"/>
+        <v>0.90012224011854181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2.9458474668672601</v>
       </c>
@@ -4048,8 +4122,12 @@
       <c r="E143">
         <v>21.5543803035137</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <f t="shared" si="0"/>
+        <v>0.93006929702685404</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3.2462474904745502</v>
       </c>
@@ -4059,8 +4137,12 @@
       <c r="E144">
         <v>13.001577487443599</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <f t="shared" si="0"/>
+        <v>0.97436387098481902</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3.6027080367833602</v>
       </c>
@@ -4070,8 +4152,12 @@
       <c r="E145">
         <v>6.8732838447080002</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <f t="shared" si="0"/>
+        <v>0.99281325199465809</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3.9514878097331998</v>
       </c>
@@ -4081,8 +4167,12 @@
       <c r="E146">
         <v>3.5052831324879299</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <f t="shared" si="0"/>
+        <v>0.99812916501144444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>4.0018217629247399</v>
       </c>
@@ -4092,8 +4182,12 @@
       <c r="E147">
         <v>2.4366329195721401</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <f t="shared" si="0"/>
+        <v>0.99909585205622953</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>4.4244371510796796</v>
       </c>
@@ -4103,8 +4197,12 @@
       <c r="E148">
         <v>-4.4780637216899901</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <f t="shared" si="0"/>
+        <v>0.99694729953885597</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4.5796323063826696</v>
       </c>
@@ -4114,8 +4212,12 @@
       <c r="E149">
         <v>-6.5571061457990396</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <f t="shared" si="0"/>
+        <v>0.99345853365100478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>4.6183738775281498</v>
       </c>
@@ -4125,8 +4227,12 @@
       <c r="E150">
         <v>-6.8937701749840699</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <f t="shared" si="0"/>
+        <v>0.99277039865464178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>4.8421902367831597</v>
       </c>
@@ -4136,8 +4242,12 @@
       <c r="E151">
         <v>-10.378847063742599</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <f t="shared" si="0"/>
+        <v>0.98363804935299026</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5.0379419240545298</v>
       </c>
@@ -4147,8 +4257,12 @@
       <c r="E152">
         <v>-11.329700877571099</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <f t="shared" si="0"/>
+        <v>0.98051295260700322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5.2046238287630802</v>
       </c>
@@ -4158,8 +4272,12 @@
       <c r="E153">
         <v>-13.802705035856</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <f t="shared" si="0"/>
+        <v>0.97112301723771821</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2.3561788592675099</v>
       </c>
@@ -4169,8 +4287,12 @@
       <c r="E154">
         <v>24.857560986344701</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <f t="shared" si="0"/>
+        <v>0.90735562688961335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2.6489861367162399</v>
       </c>
@@ -4180,8 +4302,12 @@
       <c r="E155">
         <v>18.7833640594943</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <f t="shared" si="0"/>
+        <v>0.94674279067961897</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2.93354766622886</v>
       </c>
@@ -4191,8 +4317,12 @@
       <c r="E156">
         <v>10.0046514372941</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <f t="shared" si="0"/>
+        <v>0.98479365250505413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3.2438675550745102</v>
       </c>
@@ -4202,8 +4332,12 @@
       <c r="E157">
         <v>6.0719162221126304</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <f t="shared" si="0"/>
+        <v>0.99438991048673775</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3.6429460703357299</v>
       </c>
@@ -4213,8 +4347,12 @@
       <c r="E158">
         <v>1.7479401134950601</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <f t="shared" si="0"/>
+        <v>0.99953468810532009</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3.6431925464968602</v>
       </c>
@@ -4224,8 +4362,12 @@
       <c r="E159">
         <v>0.95921639786693902</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <f t="shared" si="0"/>
+        <v>0.99985986462345489</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>4.02949751473205</v>
       </c>
@@ -4235,8 +4377,12 @@
       <c r="E160">
         <v>-6.1257728638149</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <f t="shared" si="0"/>
+        <v>0.99429004369200003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4.0296911745729398</v>
       </c>
@@ -4246,8 +4392,12 @@
       <c r="E161">
         <v>-6.7454843546655896</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <f t="shared" si="0"/>
+        <v>0.99307771733138583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4.1046199275576098</v>
       </c>
@@ -4257,8 +4407,12 @@
       <c r="E162">
         <v>-6.5174939056168304</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <f t="shared" si="0"/>
+        <v>0.9935372454517144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4.4362568033522303</v>
       </c>
@@ -4268,8 +4422,12 @@
       <c r="E163">
         <v>-13.210041902947999</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <f t="shared" si="0"/>
+        <v>0.97353886617191465</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4.6119590953604597</v>
       </c>
@@ -4279,8 +4437,12 @@
       <c r="E164">
         <v>-15.457376329285699</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <f t="shared" si="0"/>
+        <v>0.96382899142268341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4.7803855391315899</v>
       </c>
@@ -4290,8 +4452,12 @@
       <c r="E165">
         <v>-16.240178215068401</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <f t="shared" si="0"/>
+        <v>0.96009780926493471</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>5.1013647216990003</v>
       </c>
@@ -4301,8 +4467,12 @@
       <c r="E166">
         <v>-17.919016976245601</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <f t="shared" si="0"/>
+        <v>0.95149233708450798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2.2963987872252498</v>
       </c>
@@ -4312,8 +4482,12 @@
       <c r="E167">
         <v>12.517427885216501</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <f t="shared" si="0"/>
+        <v>0.97623012665809528</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2.6253932465131702</v>
       </c>
@@ -4323,8 +4497,12 @@
       <c r="E168">
         <v>7.0078854365999002</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <f t="shared" si="0"/>
+        <v>0.99252936974978967</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2.8707730688782802</v>
       </c>
@@ -4334,8 +4512,12 @@
       <c r="E169">
         <v>-2.5727949936538101E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <f t="shared" si="0"/>
+        <v>0.99999989918269216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3.2301049024148401</v>
       </c>
@@ -4345,8 +4527,12 @@
       <c r="E170">
         <v>-8.0694134487556592</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <f t="shared" si="0"/>
+        <v>0.99009873479779265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3.5976824838875201</v>
       </c>
@@ -4356,8 +4542,12 @@
       <c r="E171">
         <v>-13.408583252224901</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <f t="shared" si="0"/>
+        <v>0.97274115006490769</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4.0517635949508302</v>
       </c>
@@ -4367,8 +4557,12 @@
       <c r="E172">
         <v>-19.195411382117001</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <f t="shared" si="0"/>
+        <v>0.94440270498438328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4.4604786879145601</v>
       </c>
@@ -4378,8 +4572,12 @@
       <c r="E173">
         <v>-25.265527047857699</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <f t="shared" si="0"/>
+        <v>0.90433951292265768</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4.6746584694670599</v>
       </c>
@@ -4389,8 +4587,12 @@
       <c r="E174">
         <v>-27.0044643794932</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <f t="shared" si="0"/>
+        <v>0.89097114739686023</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4.6767727227713296</v>
       </c>
@@ -4400,8 +4602,12 @@
       <c r="E175">
         <v>-26.497347680433201</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <f t="shared" si="0"/>
+        <v>0.89495501590256532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4.9318611450938299</v>
       </c>
@@ -4411,8 +4617,12 @@
       <c r="E176">
         <v>-28.234844566971098</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <f t="shared" si="0"/>
+        <v>0.88101590621668591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>5.1387826838492998</v>
       </c>
@@ -4422,8 +4632,12 @@
       <c r="E177">
         <v>-28.565586766310702</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <f t="shared" si="0"/>
+        <v>0.87827033097531471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2.3053791621610999</v>
       </c>
@@ -4431,7 +4645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2.6348841792113702</v>
       </c>
@@ -4439,7 +4653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2.9473535322414599</v>
       </c>
@@ -4447,7 +4661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3.2484065576262999</v>
       </c>
@@ -4455,7 +4669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3.7067161752981601</v>
       </c>
@@ -4463,7 +4677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>4.1060587721605897</v>
       </c>
@@ -4471,7 +4685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>4.1013549186698599</v>
       </c>
@@ -4479,7 +4693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>4.5998689595084796</v>
       </c>
@@ -4487,7 +4701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>4.9228391572995998</v>
       </c>
@@ -4495,7 +4709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>5.0909487031492704</v>
       </c>
@@ -4503,7 +4717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5.1024530579949197</v>
       </c>
@@ -4511,7 +4725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2.3476050099480701</v>
       </c>
@@ -4519,7 +4733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2.6098988587473499</v>
       </c>
@@ -4527,7 +4741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2.60796065984389</v>
       </c>
@@ -4535,7 +4749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3.0182442374693701</v>
       </c>
